--- a/packages/ambre/tests/actual_expected/rule_merge.expected.xlsx
+++ b/packages/ambre/tests/actual_expected/rule_merge.expected.xlsx
@@ -474,12 +474,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>parch:0 ∪ pclass:1 ∪ sex:female</t>
+          <t>parch=0 ∪ pclass=1 ∪ sex=female</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -501,12 +501,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pclass:1 ∪ sex:female ∪ sibsp:0</t>
+          <t>pclass=1 ∪ sex=female ∪ sibsp=0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -528,12 +528,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>embarked:c ∪ pclass:1 ∪ sex:female</t>
+          <t>embarked=c ∪ pclass=1 ∪ sex=female</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -555,12 +555,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>parch:0 ∪ pclass:1 ∪ sex:female ∪ sibsp:0</t>
+          <t>parch=0 ∪ pclass=1 ∪ sex=female ∪ sibsp=0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -582,12 +582,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>embarked:c ∪ parch:0 ∪ pclass:1 ∪ sex:female</t>
+          <t>embarked=c ∪ parch=0 ∪ pclass=1 ∪ sex=female</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -609,12 +609,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pclass:1 ∪ sex:female</t>
+          <t>pclass=1 ∪ sex=female</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -636,12 +636,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>embarked:s ∪ pclass:1 ∪ sex:female</t>
+          <t>embarked=s ∪ pclass=1 ∪ sex=female</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -663,12 +663,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pclass:1 ∪ sex:female ∪ sibsp:1</t>
+          <t>pclass=1 ∪ sex=female ∪ sibsp=1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -690,12 +690,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pclass:2 ∪ sex:female ∪ sibsp:0</t>
+          <t>pclass=2 ∪ sex=female ∪ sibsp=0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -717,12 +717,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>embarked:s ∪ pclass:2 ∪ sex:female ∪ sibsp:0</t>
+          <t>embarked=s ∪ pclass=2 ∪ sex=female ∪ sibsp=0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -744,12 +744,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pclass:2 ∪ sex:female</t>
+          <t>pclass=2 ∪ sex=female</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -771,12 +771,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>embarked:s ∪ pclass:2 ∪ sex:female</t>
+          <t>embarked=s ∪ pclass=2 ∪ sex=female</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -798,12 +798,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>embarked:c ∪ parch:0 ∪ sex:female</t>
+          <t>embarked=c ∪ parch=0 ∪ sex=female</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -825,12 +825,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>parch:0 ∪ pclass:2 ∪ sex:female</t>
+          <t>parch=0 ∪ pclass=2 ∪ sex=female</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -852,12 +852,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>embarked:c ∪ sex:female</t>
+          <t>embarked=c ∪ sex=female</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -879,12 +879,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>embarked:s ∪ parch:0 ∪ pclass:2 ∪ sex:female</t>
+          <t>embarked=s ∪ parch=0 ∪ pclass=2 ∪ sex=female</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -906,12 +906,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>embarked:c ∪ sex:female ∪ sibsp:0</t>
+          <t>embarked=c ∪ sex=female ∪ sibsp=0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -933,12 +933,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>age:nan ∪ parch:0 ∪ sex:female</t>
+          <t>age=nan ∪ parch=0 ∪ sex=female</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -960,12 +960,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>parch:0 ∪ sex:female ∪ sibsp:1</t>
+          <t>parch=0 ∪ sex=female ∪ sibsp=1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -987,12 +987,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>parch:0 ∪ sex:female</t>
+          <t>parch=0 ∪ sex=female</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1014,12 +1014,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sex:female ∪ sibsp:0</t>
+          <t>sex=female ∪ sibsp=0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1041,12 +1041,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>parch:0 ∪ sex:female ∪ sibsp:0</t>
+          <t>parch=0 ∪ sex=female ∪ sibsp=0</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1068,12 +1068,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>embarked:s ∪ parch:1 ∪ sex:female</t>
+          <t>embarked=s ∪ parch=1 ∪ sex=female</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1095,12 +1095,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>embarked:s ∪ sex:female ∪ sibsp:0</t>
+          <t>embarked=s ∪ sex=female ∪ sibsp=0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1122,12 +1122,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>parch:1 ∪ sex:female</t>
+          <t>parch=1 ∪ sex=female</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1149,12 +1149,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>parch:0 ∪ pclass:1 ∪ sibsp:1</t>
+          <t>parch=0 ∪ pclass=1 ∪ sibsp=1</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1176,12 +1176,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sex:female ∪ sibsp:1</t>
+          <t>sex=female ∪ sibsp=1</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1203,12 +1203,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>pclass:1 ∪ sibsp:1</t>
+          <t>pclass=1 ∪ sibsp=1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1230,12 +1230,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sex:female</t>
+          <t>sex=female</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1257,12 +1257,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>embarked:s ∪ parch:0 ∪ sex:female ∪ sibsp:0</t>
+          <t>embarked=s ∪ parch=0 ∪ sex=female ∪ sibsp=0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1284,12 +1284,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>embarked:s ∪ parch:0 ∪ sex:female</t>
+          <t>embarked=s ∪ parch=0 ∪ sex=female</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1311,12 +1311,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>embarked:c ∪ parch:0 ∪ pclass:1</t>
+          <t>embarked=c ∪ parch=0 ∪ pclass=1</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1338,12 +1338,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>embarked:s ∪ sex:female ∪ sibsp:1</t>
+          <t>embarked=s ∪ sex=female ∪ sibsp=1</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>survived:1</t>
+          <t>survived=1</t>
         </is>
       </c>
       <c r="C34" t="n">
